--- a/Offline/BusinessManagement/Website/Product-Backlog - Website.xlsx
+++ b/Offline/BusinessManagement/Website/Product-Backlog - Website.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB51820-6F98-47CA-B6B6-3CDB9327D73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BC9A3B-E1D3-41E0-B52E-25FE1A5D43D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>PRIORITY</t>
   </si>
@@ -112,6 +112,24 @@
   </si>
   <si>
     <t>I can see fb &amp; Linked In links.</t>
+  </si>
+  <si>
+    <t>I can see course catalogue</t>
+  </si>
+  <si>
+    <t>Register as user</t>
+  </si>
+  <si>
+    <t>I can do a course</t>
+  </si>
+  <si>
+    <t>View the course details</t>
+  </si>
+  <si>
+    <t>I can select the courses</t>
+  </si>
+  <si>
+    <t>View the free videos</t>
   </si>
 </sst>
 </file>
@@ -412,63 +430,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFAAEEE6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81D6F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00BD32"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2D2D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -901,7 +863,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1059,9 +1021,15 @@
       <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="17" t="s">
         <v>9</v>
       </c>
@@ -1076,9 +1044,15 @@
       <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="24"/>
+      <c r="B8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="17" t="s">
         <v>9</v>
       </c>
@@ -1093,9 +1067,15 @@
       <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="24"/>
+      <c r="B9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="17" t="s">
         <v>9</v>
       </c>
@@ -1110,9 +1090,15 @@
       <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="E10" s="17" t="s">
         <v>9</v>
       </c>
@@ -1216,30 +1202,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E15">
-    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G15">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="Overdue">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH("Overdue",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="On Hold">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="On Hold">
       <formula>NOT(ISERROR(SEARCH("On Hold",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
